--- a/LogArchive/MyCaseLog.xlsx
+++ b/LogArchive/MyCaseLog.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>LogID</t>
   </si>
@@ -119,7 +119,7 @@
     <t>F</t>
   </si>
   <si>
-    <t>asdf asdfasdf asdfasdf  asdf asdf</t>
+    <t xml:space="preserve">asdf asdfasdf asdfasdf  asdf asdf</t>
   </si>
   <si>
     <t>20210519_164059</t>
@@ -137,7 +137,7 @@
     <t>20210520_085648</t>
   </si>
   <si>
-    <t>asd;kf;asdjf 
+    <t xml:space="preserve">asd;kf;asdjf 
 asdf as;odkfj;alsj df</t>
   </si>
   <si>
@@ -202,7 +202,7 @@
     <t>20210520_174837</t>
   </si>
   <si>
-    <t>asdlofjawe asfcjawej;fldjasd;foje
+    <t xml:space="preserve">asdlofjawe asfcjawej;fldjasd;foje
 asdfksadf
 sdkfasldjfj asdfkwe;kfjas;dkfjasdf
 aeklfja;skdjf;lef;kszdfkdfkekdk fa
@@ -227,12 +227,61 @@
   <si>
     <t>asdfasdf</t>
   </si>
+  <si>
+    <t>20210521_143014</t>
+  </si>
+  <si>
+    <t>12341234</t>
+  </si>
+  <si>
+    <t>2341234</t>
+  </si>
+  <si>
+    <t>wsdfasdfaf</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>20210521_145310</t>
+  </si>
+  <si>
+    <t>XR</t>
+  </si>
+  <si>
+    <t>20210521_145638</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>asdfasd</t>
+  </si>
+  <si>
+    <t>20210521_150039</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>1232</t>
+  </si>
+  <si>
+    <t>fakdljfeklj d</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,39 +339,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -604,29 +653,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr">
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.5703125" style="3" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="6" style="3" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="34.42578125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="8" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="11" style="6" customWidth="1"/>
-    <col min="15" max="15" width="23.5703125" style="3" customWidth="1"/>
-    <col min="16" max="19" width="9.140625" style="3" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="2" width="17.5703125" customWidth="1" style="3"/>
+    <col min="3" max="5" width="9.140625" customWidth="1" style="3"/>
+    <col min="6" max="6" width="6" customWidth="1" style="3"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1" style="3"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1" style="3"/>
+    <col min="9" max="9" width="9.140625" customWidth="1" style="3"/>
+    <col min="10" max="10" width="34.42578125" customWidth="1" style="4"/>
+    <col min="11" max="11" width="8.140625" customWidth="1" style="8"/>
+    <col min="12" max="13" width="9.140625" customWidth="1" style="8"/>
+    <col min="14" max="14" width="11" customWidth="1" style="6"/>
+    <col min="15" max="15" width="23.5703125" customWidth="1" style="3"/>
+    <col min="16" max="19" width="9.140625" customWidth="1" style="3"/>
+    <col min="20" max="16384" width="9.140625" customWidth="1" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="11" customFormat="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -673,7 +722,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -714,7 +763,7 @@
       </c>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -756,7 +805,7 @@
         <v>Folder-20210519_043026</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -795,7 +844,7 @@
       </c>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" ht="30">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -836,7 +885,7 @@
       </c>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" ht="30">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -878,7 +927,7 @@
         <v>20210520_085808</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
@@ -920,7 +969,7 @@
         <v>20210520_094650</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
@@ -961,7 +1010,7 @@
       </c>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
@@ -1007,7 +1056,7 @@
         <v>20210520_161245</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
@@ -1051,7 +1100,7 @@
         <v>20210520_161440</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" ht="120">
       <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
@@ -1091,7 +1140,7 @@
         <v>20210520_174837</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
@@ -1137,75 +1186,195 @@
         <v>20210520_200240</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O13" s="1">
+        <f>HYPERLINK("C:\Users\kartuzv\source\repos\MyCaseLog\LogArchive\20210521_143014", "20210521_143014")</f>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O14" s="1">
+        <f>HYPERLINK("C:\Users\kartuzv\source\repos\MyCaseLog\LogArchive\20210521_145310", "20210521_145310")</f>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O15" s="1">
+        <f>HYPERLINK("C:\Users\kartuzv\source\repos\MyCaseLog\LogArchive\20210521_145638", "20210521_145638")</f>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O16" s="1">
+        <f>HYPERLINK("C:\Users\kartuzv\source\repos\MyCaseLog\LogArchive\20210521_150039", "20210521_150039")</f>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1222,7 +1391,7 @@
       <c r="N17" s="5"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1239,7 +1408,7 @@
       <c r="N18" s="5"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1256,7 +1425,7 @@
       <c r="N19" s="5"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1273,7 +1442,7 @@
       <c r="N20" s="5"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1290,7 +1459,7 @@
       <c r="N21" s="5"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1307,7 +1476,7 @@
       <c r="N22" s="5"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1324,7 +1493,7 @@
       <c r="N23" s="5"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1341,7 +1510,7 @@
       <c r="N24" s="5"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1358,7 +1527,7 @@
       <c r="N25" s="5"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1375,7 +1544,7 @@
       <c r="N26" s="5"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1392,7 +1561,7 @@
       <c r="N27" s="5"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1409,7 +1578,7 @@
       <c r="N28" s="5"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1426,7 +1595,7 @@
       <c r="N29" s="5"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1447,5 +1616,6 @@
   <autoFilter ref="A1:O4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>